--- a/bill of materials/Bill of materials Kobe Druwé.xlsx
+++ b/bill of materials/Bill of materials Kobe Druwé.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koend\Documents\3e Jaar Elektromechanica\Synthese project\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{311D6506-2994-426D-8AC8-B2782E50C043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978F55D7-AAC5-4659-8B9A-C88ED79DC9B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="56">
   <si>
     <t>Naam</t>
   </si>
@@ -198,6 +198,12 @@
   </si>
   <si>
     <t>https://www.conrad.be/nl/p/samsung-nr18650-25r-speciale-oplaadbare-batterij-18650-geschikt-voor-hoge-stroomsterktes-geschikt-voor-hoge-temperature-1431335.html?utm_source=google&amp;utm_medium=surfaces&amp;utm_campaign=shopping-feed&amp;utm_content=free-google-shopping-clicks&amp;utm_term=1431335&amp;adcampaign=google&amp;tid=17080759379_pla-1431335&amp;gclid=CjwKCAiAv9ucBhBXEiwA6N8nYJIEMt1WH1HiUuvHtREoeH-zWSo7VxEOFMrTo22NHmP-SqW3NLh3nhoCVBgQAvD_BwE</t>
+  </si>
+  <si>
+    <t>Motorbracket</t>
+  </si>
+  <si>
+    <t>PLA</t>
   </si>
 </sst>
 </file>
@@ -320,10 +326,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -639,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:J18"/>
+  <dimension ref="B1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -759,7 +765,7 @@
         <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="8" t="s">
         <v>48</v>
       </c>
     </row>
@@ -813,7 +819,7 @@
         <f t="shared" si="0"/>
         <v>15.98</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="8" t="s">
         <v>49</v>
       </c>
     </row>
@@ -867,7 +873,7 @@
         <f t="shared" si="0"/>
         <v>16.98</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="8" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1083,27 +1089,51 @@
         <f t="shared" si="0"/>
         <v>1.51</v>
       </c>
-      <c r="J17" s="9" t="s">
+      <c r="J17" s="8" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="2">
+        <v>16</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.34</v>
+      </c>
+      <c r="G18" s="4">
+        <v>2</v>
+      </c>
+      <c r="H18" s="6">
+        <f t="shared" ref="H18" si="1">F18*G18</f>
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="3">
-        <f>SUM(H3:H17)</f>
-        <v>67.580000000000013</v>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="3">
+        <f>SUM(H3:H18)</f>
+        <v>68.260000000000019</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J5" r:id="rId1" xr:uid="{9ADB5A2E-9B9C-450F-B5A3-E86882C9CB14}"/>
